--- a/judo-tatami-asm2rdbms/model/RDBMS_Data_Types_Oracle.xlsx
+++ b/judo-tatami-asm2rdbms/model/RDBMS_Data_Types_Oracle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bence/Projects/judo-ng/runtime/judo-tatami-base/judo-tatami-asm2rdbms/model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3151B581-E518-8643-B45A-347C32372054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527E8B10-3183-9946-9C22-A0F949C50C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10740" yWindow="5320" windowWidth="30700" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
